--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTDL\BTTH5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67090E96-2923-4386-B859-A7B455513C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4309D8C-1AEF-4460-B80C-E58BC7652F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{9F05724B-616C-4478-8C97-059E9FFCD452}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4724E4FC-B85E-4698-9AB1-D12320D52C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,54 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
-  <si>
-    <t>Outlook</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>PlayBall</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Overcast</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Rainy</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Low</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Tọa độ x1</t>
+  </si>
+  <si>
+    <t>Tọa độ x2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
   </si>
 </sst>
 </file>
@@ -99,12 +72,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +86,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -129,11 +115,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,16 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4688E2C-8716-475D-A0E2-54EEFB48F142}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D45901-2B92-46C0-8B08-A52C1F52EFA5}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,96 +473,49 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
